--- a/ExportDisposals.xlsx
+++ b/ExportDisposals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billy\Desktop\afl-dashboard-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CFC7F6-306E-4A7F-A43E-850BEB5C861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B55230-475B-4546-AFE8-416F79D8F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4AC6796A-CC25-4FE8-B572-BE19D2988A54}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{4AC6796A-CC25-4FE8-B572-BE19D2988A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Brisbane Lions VS Collingwood" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="275">
   <si>
     <t>ROUND 5</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>Karl Amon</t>
+  </si>
+  <si>
+    <t>ROUND 6</t>
   </si>
 </sst>
 </file>
@@ -1247,13 +1250,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,15 +1275,6 @@
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
@@ -2370,14 +2373,17 @@
   <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2742,7 +2748,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
@@ -2757,7 +2763,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>21</v>
       </c>
@@ -2834,7 +2840,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2851,7 +2857,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -2892,7 +2898,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
@@ -2907,7 +2913,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>13</v>
       </c>
@@ -2946,7 +2952,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
@@ -2961,7 +2967,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>17</v>
       </c>
@@ -3000,7 +3006,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
@@ -3015,7 +3021,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>15</v>
       </c>
@@ -3054,7 +3060,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
@@ -3069,7 +3075,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>27</v>
       </c>
@@ -3108,7 +3114,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
@@ -3123,7 +3129,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +3206,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3217,7 +3223,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -3258,7 +3264,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
@@ -3273,7 +3279,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>17</v>
       </c>
@@ -3312,7 +3318,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
@@ -3327,7 +3333,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>13</v>
       </c>
@@ -3366,7 +3372,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>32</v>
       </c>
@@ -3381,7 +3387,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>34</v>
       </c>
@@ -3420,7 +3426,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
@@ -3435,7 +3441,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>27</v>
       </c>
@@ -3474,7 +3480,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>35</v>
       </c>
@@ -3489,7 +3495,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>36</v>
       </c>
@@ -3583,7 +3589,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -3639,7 +3645,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>41</v>
       </c>
@@ -3693,7 +3699,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
@@ -3747,7 +3753,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>13</v>
       </c>
@@ -3803,7 +3809,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -3859,7 +3865,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>29</v>
       </c>
@@ -3898,7 +3904,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
@@ -3913,7 +3919,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>21</v>
       </c>
@@ -3952,7 +3958,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -3969,7 +3975,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -4025,7 +4031,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>27</v>
       </c>
@@ -4064,7 +4070,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>26</v>
       </c>
@@ -4079,7 +4085,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>47</v>
       </c>
@@ -4197,18 +4203,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
@@ -4737,7 +4743,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>62</v>
       </c>
@@ -4752,7 +4758,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>63</v>
       </c>
@@ -4829,7 +4835,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -4846,7 +4852,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -4887,7 +4893,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>58</v>
       </c>
@@ -4902,7 +4908,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>55</v>
       </c>
@@ -4941,7 +4947,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>54</v>
       </c>
@@ -4956,7 +4962,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>57</v>
       </c>
@@ -4995,7 +5001,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>64</v>
       </c>
@@ -5010,7 +5016,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>61</v>
       </c>
@@ -5049,7 +5055,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
@@ -5064,7 +5070,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>63</v>
       </c>
@@ -5103,7 +5109,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>66</v>
       </c>
@@ -5118,7 +5124,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>67</v>
       </c>
@@ -5195,7 +5201,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -5212,7 +5218,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -5253,7 +5259,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>58</v>
       </c>
@@ -5268,7 +5274,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>55</v>
       </c>
@@ -5307,7 +5313,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
@@ -5322,7 +5328,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>61</v>
       </c>
@@ -5361,7 +5367,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>64</v>
       </c>
@@ -5376,7 +5382,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>68</v>
       </c>
@@ -5415,7 +5421,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>65</v>
       </c>
@@ -5430,7 +5436,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>69</v>
       </c>
@@ -5469,7 +5475,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>66</v>
       </c>
@@ -5484,7 +5490,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>57</v>
       </c>
@@ -5578,7 +5584,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -5634,7 +5640,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>70</v>
       </c>
@@ -5688,7 +5694,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>59</v>
       </c>
@@ -5742,7 +5748,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>63</v>
       </c>
@@ -5798,7 +5804,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -5854,7 +5860,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>67</v>
       </c>
@@ -5893,7 +5899,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>73</v>
       </c>
@@ -5908,7 +5914,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>63</v>
       </c>
@@ -5947,7 +5953,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -5964,7 +5970,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -6020,7 +6026,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>72</v>
       </c>
@@ -6059,7 +6065,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>66</v>
       </c>
@@ -6074,7 +6080,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>67</v>
       </c>
@@ -6192,18 +6198,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
@@ -6732,7 +6738,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>89</v>
       </c>
@@ -6747,7 +6753,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>90</v>
       </c>
@@ -6824,7 +6830,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -6841,7 +6847,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -6882,7 +6888,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>85</v>
       </c>
@@ -6897,7 +6903,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>82</v>
       </c>
@@ -6936,7 +6942,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>91</v>
       </c>
@@ -6951,7 +6957,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>84</v>
       </c>
@@ -6990,7 +6996,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>92</v>
       </c>
@@ -7005,7 +7011,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>93</v>
       </c>
@@ -7044,7 +7050,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>94</v>
       </c>
@@ -7059,7 +7065,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>86</v>
       </c>
@@ -7098,7 +7104,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>95</v>
       </c>
@@ -7113,7 +7119,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>96</v>
       </c>
@@ -7190,7 +7196,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -7207,7 +7213,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -7248,7 +7254,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>85</v>
       </c>
@@ -7263,7 +7269,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>82</v>
       </c>
@@ -7302,7 +7308,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>91</v>
       </c>
@@ -7317,7 +7323,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>97</v>
       </c>
@@ -7356,7 +7362,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>83</v>
       </c>
@@ -7371,7 +7377,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>98</v>
       </c>
@@ -7410,7 +7416,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>92</v>
       </c>
@@ -7425,7 +7431,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>96</v>
       </c>
@@ -7464,7 +7470,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>99</v>
       </c>
@@ -7479,7 +7485,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>93</v>
       </c>
@@ -7573,7 +7579,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -7629,7 +7635,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>100</v>
       </c>
@@ -7683,7 +7689,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>101</v>
       </c>
@@ -7737,7 +7743,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>84</v>
       </c>
@@ -7793,7 +7799,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -7849,7 +7855,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>103</v>
       </c>
@@ -7888,7 +7894,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>92</v>
       </c>
@@ -7903,7 +7909,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>93</v>
       </c>
@@ -7942,7 +7948,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -7959,7 +7965,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -8015,7 +8021,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>98</v>
       </c>
@@ -8054,7 +8060,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>85</v>
       </c>
@@ -8069,7 +8075,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>104</v>
       </c>
@@ -8187,18 +8193,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
@@ -8727,7 +8733,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>118</v>
       </c>
@@ -8742,7 +8748,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>119</v>
       </c>
@@ -8819,7 +8825,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -8836,7 +8842,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -8877,7 +8883,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>110</v>
       </c>
@@ -8892,7 +8898,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>113</v>
       </c>
@@ -8931,7 +8937,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>120</v>
       </c>
@@ -8946,7 +8952,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>121</v>
       </c>
@@ -8985,7 +8991,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>122</v>
       </c>
@@ -9000,7 +9006,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>123</v>
       </c>
@@ -9039,7 +9045,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>124</v>
       </c>
@@ -9054,7 +9060,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>111</v>
       </c>
@@ -9093,7 +9099,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>112</v>
       </c>
@@ -9108,7 +9114,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>125</v>
       </c>
@@ -9185,7 +9191,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -9202,7 +9208,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -9243,7 +9249,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>110</v>
       </c>
@@ -9258,7 +9264,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>113</v>
       </c>
@@ -9297,7 +9303,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>120</v>
       </c>
@@ -9312,7 +9318,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>126</v>
       </c>
@@ -9351,7 +9357,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>112</v>
       </c>
@@ -9366,7 +9372,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>127</v>
       </c>
@@ -9405,7 +9411,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>128</v>
       </c>
@@ -9420,7 +9426,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>111</v>
       </c>
@@ -9459,7 +9465,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>129</v>
       </c>
@@ -9474,7 +9480,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>123</v>
       </c>
@@ -9568,7 +9574,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -9624,7 +9630,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>131</v>
       </c>
@@ -9678,7 +9684,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>133</v>
       </c>
@@ -9732,7 +9738,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>115</v>
       </c>
@@ -9788,7 +9794,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -9844,7 +9850,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>119</v>
       </c>
@@ -9883,7 +9889,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>110</v>
       </c>
@@ -9898,7 +9904,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>123</v>
       </c>
@@ -9937,7 +9943,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -9954,7 +9960,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -10010,7 +10016,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>111</v>
       </c>
@@ -10049,7 +10055,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>120</v>
       </c>
@@ -10064,7 +10070,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>123</v>
       </c>
@@ -10182,18 +10188,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
@@ -10722,7 +10728,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>149</v>
       </c>
@@ -10737,7 +10743,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>150</v>
       </c>
@@ -10814,7 +10820,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -10831,7 +10837,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -10872,7 +10878,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>141</v>
       </c>
@@ -10887,7 +10893,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>146</v>
       </c>
@@ -10926,7 +10932,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>145</v>
       </c>
@@ -10941,7 +10947,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>151</v>
       </c>
@@ -10980,7 +10986,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>152</v>
       </c>
@@ -10995,7 +11001,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>153</v>
       </c>
@@ -11034,7 +11040,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>154</v>
       </c>
@@ -11049,7 +11055,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>142</v>
       </c>
@@ -11088,7 +11094,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>155</v>
       </c>
@@ -11103,7 +11109,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>156</v>
       </c>
@@ -11180,7 +11186,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -11197,7 +11203,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -11238,7 +11244,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>141</v>
       </c>
@@ -11253,7 +11259,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>146</v>
       </c>
@@ -11292,7 +11298,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>145</v>
       </c>
@@ -11307,7 +11313,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>151</v>
       </c>
@@ -11346,7 +11352,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>154</v>
       </c>
@@ -11361,7 +11367,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>157</v>
       </c>
@@ -11400,7 +11406,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>158</v>
       </c>
@@ -11415,7 +11421,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>159</v>
       </c>
@@ -11454,7 +11460,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>155</v>
       </c>
@@ -11469,7 +11475,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>153</v>
       </c>
@@ -11563,7 +11569,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -11619,7 +11625,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>160</v>
       </c>
@@ -11673,7 +11679,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>150</v>
       </c>
@@ -11727,7 +11733,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>146</v>
       </c>
@@ -11783,7 +11789,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -11839,7 +11845,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>156</v>
       </c>
@@ -11878,7 +11884,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>154</v>
       </c>
@@ -11893,7 +11899,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>160</v>
       </c>
@@ -11932,7 +11938,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -11949,7 +11955,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -12005,7 +12011,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>151</v>
       </c>
@@ -12044,7 +12050,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>155</v>
       </c>
@@ -12059,7 +12065,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>156</v>
       </c>
@@ -12177,18 +12183,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
@@ -12717,7 +12723,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>176</v>
       </c>
@@ -12732,7 +12738,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>177</v>
       </c>
@@ -12809,7 +12815,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -12826,7 +12832,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -12867,7 +12873,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>172</v>
       </c>
@@ -12882,7 +12888,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>171</v>
       </c>
@@ -12921,7 +12927,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>178</v>
       </c>
@@ -12936,7 +12942,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>169</v>
       </c>
@@ -12975,7 +12981,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>179</v>
       </c>
@@ -12990,7 +12996,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>180</v>
       </c>
@@ -13029,7 +13035,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>174</v>
       </c>
@@ -13044,7 +13050,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>181</v>
       </c>
@@ -13083,7 +13089,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>182</v>
       </c>
@@ -13098,7 +13104,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>183</v>
       </c>
@@ -13175,7 +13181,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -13192,7 +13198,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -13233,7 +13239,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>179</v>
       </c>
@@ -13248,7 +13254,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>171</v>
       </c>
@@ -13287,7 +13293,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>178</v>
       </c>
@@ -13302,7 +13308,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>169</v>
       </c>
@@ -13341,7 +13347,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>168</v>
       </c>
@@ -13356,7 +13362,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>180</v>
       </c>
@@ -13395,7 +13401,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>184</v>
       </c>
@@ -13410,7 +13416,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>185</v>
       </c>
@@ -13449,7 +13455,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>174</v>
       </c>
@@ -13464,7 +13470,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>186</v>
       </c>
@@ -13558,7 +13564,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -13614,7 +13620,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>188</v>
       </c>
@@ -13668,7 +13674,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>189</v>
       </c>
@@ -13722,7 +13728,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>190</v>
       </c>
@@ -13778,7 +13784,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -13834,7 +13840,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>192</v>
       </c>
@@ -13873,7 +13879,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>179</v>
       </c>
@@ -13888,7 +13894,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>186</v>
       </c>
@@ -13927,7 +13933,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -13944,7 +13950,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -14000,7 +14006,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>186</v>
       </c>
@@ -14039,7 +14045,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>74</v>
       </c>
@@ -14054,7 +14060,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>74</v>
       </c>
@@ -14172,18 +14178,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
@@ -14712,7 +14718,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>206</v>
       </c>
@@ -14727,7 +14733,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>207</v>
       </c>
@@ -14804,7 +14810,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -14821,7 +14827,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -14862,7 +14868,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>204</v>
       </c>
@@ -14877,7 +14883,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>201</v>
       </c>
@@ -14916,7 +14922,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>208</v>
       </c>
@@ -14931,7 +14937,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>199</v>
       </c>
@@ -14970,7 +14976,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>198</v>
       </c>
@@ -14985,7 +14991,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>209</v>
       </c>
@@ -15024,7 +15030,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>202</v>
       </c>
@@ -15039,7 +15045,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>210</v>
       </c>
@@ -15078,7 +15084,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>200</v>
       </c>
@@ -15093,7 +15099,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>211</v>
       </c>
@@ -15170,7 +15176,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -15187,7 +15193,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -15228,7 +15234,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>208</v>
       </c>
@@ -15243,7 +15249,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>211</v>
       </c>
@@ -15282,7 +15288,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>202</v>
       </c>
@@ -15297,7 +15303,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>201</v>
       </c>
@@ -15336,7 +15342,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>200</v>
       </c>
@@ -15351,7 +15357,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>205</v>
       </c>
@@ -15390,7 +15396,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>212</v>
       </c>
@@ -15405,7 +15411,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>209</v>
       </c>
@@ -15444,7 +15450,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>198</v>
       </c>
@@ -15459,7 +15465,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>213</v>
       </c>
@@ -15553,7 +15559,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -15609,7 +15615,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>215</v>
       </c>
@@ -15663,7 +15669,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>217</v>
       </c>
@@ -15717,7 +15723,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>210</v>
       </c>
@@ -15773,7 +15779,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -15829,7 +15835,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>220</v>
       </c>
@@ -15868,7 +15874,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>208</v>
       </c>
@@ -15883,7 +15889,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>210</v>
       </c>
@@ -15922,7 +15928,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -15939,7 +15945,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -15995,7 +16001,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>203</v>
       </c>
@@ -16034,7 +16040,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>218</v>
       </c>
@@ -16049,7 +16055,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>219</v>
       </c>
@@ -16167,18 +16173,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
@@ -16707,7 +16713,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>235</v>
       </c>
@@ -16722,7 +16728,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>236</v>
       </c>
@@ -16799,7 +16805,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -16816,7 +16822,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -16857,7 +16863,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>227</v>
       </c>
@@ -16872,7 +16878,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>228</v>
       </c>
@@ -16911,7 +16917,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>229</v>
       </c>
@@ -16926,7 +16932,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>237</v>
       </c>
@@ -16965,7 +16971,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>238</v>
       </c>
@@ -16980,7 +16986,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>239</v>
       </c>
@@ -17019,7 +17025,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>231</v>
       </c>
@@ -17034,7 +17040,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>240</v>
       </c>
@@ -17073,7 +17079,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>241</v>
       </c>
@@ -17088,7 +17094,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>236</v>
       </c>
@@ -17165,7 +17171,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -17182,7 +17188,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -17223,7 +17229,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>242</v>
       </c>
@@ -17238,7 +17244,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>237</v>
       </c>
@@ -17277,7 +17283,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>238</v>
       </c>
@@ -17292,7 +17298,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>228</v>
       </c>
@@ -17331,7 +17337,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>235</v>
       </c>
@@ -17346,7 +17352,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>243</v>
       </c>
@@ -17385,7 +17391,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>244</v>
       </c>
@@ -17400,7 +17406,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>240</v>
       </c>
@@ -17439,7 +17445,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>227</v>
       </c>
@@ -17454,7 +17460,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>239</v>
       </c>
@@ -17548,7 +17554,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -17604,7 +17610,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>74</v>
       </c>
@@ -17658,7 +17664,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>74</v>
       </c>
@@ -17712,7 +17718,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>74</v>
       </c>
@@ -17768,7 +17774,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -17824,7 +17830,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>74</v>
       </c>
@@ -17863,7 +17869,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>74</v>
       </c>
@@ -17878,7 +17884,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>74</v>
       </c>
@@ -17917,7 +17923,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -17934,7 +17940,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -17990,7 +17996,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>74</v>
       </c>
@@ -18029,7 +18035,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>74</v>
       </c>
@@ -18044,7 +18050,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>74</v>
       </c>
@@ -18162,18 +18168,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
@@ -18702,7 +18708,7 @@
       <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="19" t="s">
         <v>258</v>
       </c>
@@ -18717,7 +18723,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="19" t="s">
         <v>259</v>
       </c>
@@ -18794,7 +18800,7 @@
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -18811,7 +18817,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -18852,7 +18858,7 @@
       <c r="AJ10" s="13"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>252</v>
       </c>
@@ -18867,7 +18873,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>251</v>
       </c>
@@ -18906,7 +18912,7 @@
       <c r="AJ11" s="13"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
         <v>260</v>
       </c>
@@ -18921,7 +18927,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>253</v>
       </c>
@@ -18960,7 +18966,7 @@
       <c r="AJ12" s="13"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>250</v>
       </c>
@@ -18975,7 +18981,7 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>257</v>
       </c>
@@ -19014,7 +19020,7 @@
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
         <v>261</v>
       </c>
@@ -19029,7 +19035,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>259</v>
       </c>
@@ -19068,7 +19074,7 @@
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>262</v>
       </c>
@@ -19083,7 +19089,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="19" t="s">
         <v>255</v>
       </c>
@@ -19160,7 +19166,7 @@
       <c r="AJ16" s="13"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -19177,7 +19183,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -19218,7 +19224,7 @@
       <c r="AJ17" s="13"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
         <v>252</v>
       </c>
@@ -19233,7 +19239,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>251</v>
       </c>
@@ -19272,7 +19278,7 @@
       <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>250</v>
       </c>
@@ -19287,7 +19293,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>257</v>
       </c>
@@ -19326,7 +19332,7 @@
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
         <v>260</v>
       </c>
@@ -19341,7 +19347,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14" t="s">
         <v>259</v>
       </c>
@@ -19380,7 +19386,7 @@
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
         <v>261</v>
       </c>
@@ -19395,7 +19401,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>263</v>
       </c>
@@ -19434,7 +19440,7 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="19" t="s">
         <v>264</v>
       </c>
@@ -19449,7 +19455,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="19" t="s">
         <v>255</v>
       </c>
@@ -19543,7 +19549,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="28" t="s">
@@ -19599,7 +19605,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="14" t="s">
         <v>266</v>
       </c>
@@ -19653,7 +19659,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="14" t="s">
         <v>268</v>
       </c>
@@ -19707,7 +19713,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="31" t="s">
         <v>251</v>
       </c>
@@ -19763,7 +19769,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -19819,7 +19825,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14" t="s">
         <v>270</v>
       </c>
@@ -19858,7 +19864,7 @@
       <c r="AJ29" s="13"/>
     </row>
     <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19" t="s">
         <v>267</v>
       </c>
@@ -19873,7 +19879,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="19" t="s">
         <v>271</v>
       </c>
@@ -19912,7 +19918,7 @@
       <c r="AJ30" s="13"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -19929,7 +19935,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="46" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="34" t="s">
@@ -19985,7 +19991,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14" t="s">
         <v>272</v>
       </c>
@@ -20024,7 +20030,7 @@
       <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>269</v>
       </c>
@@ -20039,7 +20045,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="19" t="s">
         <v>273</v>
       </c>
@@ -20157,18 +20163,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C8 J4:J8">
     <cfRule type="colorScale" priority="18">
